--- a/Day 3/Leap Year Check.xlsx
+++ b/Day 3/Leap Year Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HI\Documents\Python\100 Days of Code\100-Days-of-Code\Day 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A819F286-F1E4-4A20-A323-3F8CED7872D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40285BB8-CB14-4C52-8169-1C2FEBF0B9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8062D27D-5529-4F2A-9F8E-4D08B65E3628}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1900</v>
+        <v>2024</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>IF(MOD($A2,4)=0,"True","False")</f>
@@ -560,7 +560,7 @@
       </c>
       <c r="C2" s="2" t="str">
         <f>IF(MOD($A2,100)=0,"True","False")</f>
-        <v>True</v>
+        <v>False</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>IF(MOD($A2,400)=0,"True","False")</f>
@@ -568,20 +568,20 @@
       </c>
       <c r="E2" s="2" t="str">
         <f>IF(AND(B2="True",OR(C2="False",D2="True")),"Leap Year","Not Leap")</f>
-        <v>Not Leap</v>
+        <v>Leap Year</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>1700</v>
+        <v>2021</v>
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" ref="B3:B7" si="0">IF(MOD($A3,4)=0,"True","False")</f>
-        <v>True</v>
+        <v>False</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C7" si="1">IF(MOD($A3,100)=0,"True","False")</f>
-        <v>True</v>
+        <v>False</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:D7" si="2">IF(MOD($A3,400)=0,"True","False")</f>
@@ -594,15 +594,15 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>1800</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>False</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>True</v>
+        <v>False</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="2"/>
@@ -615,7 +615,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -627,11 +627,11 @@
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>False</v>
+        <v>True</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Not Leap</v>
+        <v>Leap Year</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">

--- a/Day 3/Leap Year Check.xlsx
+++ b/Day 3/Leap Year Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HI\Documents\Python\100 Days of Code\100-Days-of-Code\Day 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40285BB8-CB14-4C52-8169-1C2FEBF0B9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3BE438-54C8-4E7C-BB6B-608C6E050781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8062D27D-5529-4F2A-9F8E-4D08B65E3628}"/>
   </bookViews>
